--- a/data/quiz0928.xlsx
+++ b/data/quiz0928.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="7980" windowWidth="51200" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="28500" yWindow="-5140" windowWidth="51200" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
